--- a/_Out/NFDataCfg/Excel_Ini/ConsumeData.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/ConsumeData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="27518" windowHeight="17543"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -172,13 +172,16 @@
   <si>
     <t>Upload</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Force</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -422,7 +425,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -787,41 +790,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" customWidth="1"/>
-    <col min="2" max="3" width="9.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.19921875" customWidth="1"/>
+    <col min="2" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.46484375" customWidth="1"/>
     <col min="5" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" customWidth="1"/>
-    <col min="10" max="10" width="27.6328125" customWidth="1"/>
-    <col min="11" max="11" width="17.6328125" customWidth="1"/>
-    <col min="12" max="12" width="32.6328125" customWidth="1"/>
-    <col min="13" max="14" width="20.1796875" customWidth="1"/>
+    <col min="7" max="7" width="16.46484375" customWidth="1"/>
+    <col min="8" max="8" width="20.19921875" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" customWidth="1"/>
+    <col min="10" max="10" width="27.59765625" customWidth="1"/>
+    <col min="11" max="11" width="17.59765625" customWidth="1"/>
+    <col min="12" max="12" width="32.59765625" customWidth="1"/>
+    <col min="13" max="14" width="20.19921875" customWidth="1"/>
     <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="17" width="21.453125" customWidth="1"/>
-    <col min="18" max="18" width="15.1796875" customWidth="1"/>
+    <col min="16" max="17" width="21.46484375" customWidth="1"/>
+    <col min="18" max="18" width="15.19921875" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="16.453125" customWidth="1"/>
+    <col min="20" max="20" width="16.46484375" customWidth="1"/>
     <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="15.1796875" customWidth="1"/>
-    <col min="23" max="23" width="20.1796875" customWidth="1"/>
-    <col min="24" max="24" width="11.6328125" customWidth="1"/>
-    <col min="25" max="25" width="20.1796875" customWidth="1"/>
-    <col min="26" max="27" width="17.6328125" customWidth="1"/>
+    <col min="22" max="22" width="15.19921875" customWidth="1"/>
+    <col min="23" max="23" width="20.19921875" customWidth="1"/>
+    <col min="24" max="24" width="11.59765625" customWidth="1"/>
+    <col min="25" max="25" width="20.19921875" customWidth="1"/>
+    <col min="26" max="27" width="17.59765625" customWidth="1"/>
     <col min="28" max="28" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -847,7 +850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -873,7 +876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="2" customFormat="1">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -899,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="2" customFormat="1">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -925,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="2" customFormat="1">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -951,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="2" customFormat="1">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -977,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
@@ -1003,661 +1006,687 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="3" customFormat="1">
       <c r="A8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1">
+      <c r="A9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="B9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1">
+      <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H10" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="16">
-        <v>0</v>
-      </c>
-      <c r="C10" s="16">
-        <v>0</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="B11" s="16">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B12" s="16">
         <v>100</v>
       </c>
-      <c r="C11" s="16">
-        <v>0</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="16">
-        <v>0</v>
-      </c>
-      <c r="C12" s="16">
+      <c r="B13" s="16">
+        <v>0</v>
+      </c>
+      <c r="C13" s="16">
         <v>100</v>
       </c>
-      <c r="D12" s="16">
-        <v>0</v>
-      </c>
-      <c r="E12" s="16">
-        <v>0</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0</v>
-      </c>
-      <c r="G12" s="16">
-        <v>0</v>
-      </c>
-      <c r="H12" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="16">
-        <v>0</v>
-      </c>
-      <c r="C13" s="16">
-        <v>0</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="B14" s="16">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
         <v>100</v>
       </c>
-      <c r="E13" s="16">
-        <v>0</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0</v>
-      </c>
-      <c r="G13" s="16">
-        <v>0</v>
-      </c>
-      <c r="H13" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="16">
-        <v>0</v>
-      </c>
-      <c r="C14" s="16">
-        <v>0</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0</v>
-      </c>
-      <c r="E14" s="16">
-        <v>0</v>
-      </c>
-      <c r="F14" s="16">
+      <c r="B15" s="16">
+        <v>0</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
         <v>100</v>
       </c>
-      <c r="G14" s="16">
-        <v>0</v>
-      </c>
-      <c r="H14" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="16">
-        <v>0</v>
-      </c>
-      <c r="C15" s="16">
-        <v>0</v>
-      </c>
-      <c r="D15" s="16">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16">
-        <v>0</v>
-      </c>
-      <c r="G15" s="16">
+      <c r="B16" s="16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16">
         <v>100</v>
       </c>
-      <c r="H15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="H16" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="16">
-        <v>0</v>
-      </c>
-      <c r="C16" s="16">
-        <v>0</v>
-      </c>
-      <c r="D16" s="16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="16">
+      <c r="B17" s="16">
+        <v>0</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16">
         <v>500</v>
       </c>
-      <c r="H16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="H17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="16">
-        <v>0</v>
-      </c>
-      <c r="C17" s="16">
-        <v>0</v>
-      </c>
-      <c r="D17" s="16">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16">
-        <v>0</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0</v>
-      </c>
-      <c r="G17" s="16">
+      <c r="B18" s="16">
+        <v>0</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0</v>
+      </c>
+      <c r="G18" s="16">
         <v>900</v>
       </c>
-      <c r="H17" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="H18" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="16">
-        <v>0</v>
-      </c>
-      <c r="C18" s="16">
-        <v>0</v>
-      </c>
-      <c r="D18" s="16">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16">
+      <c r="B19" s="16">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0</v>
+      </c>
+      <c r="G19" s="16">
         <v>1300</v>
       </c>
-      <c r="H18" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="H19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="16">
-        <v>0</v>
-      </c>
-      <c r="C19" s="16">
-        <v>0</v>
-      </c>
-      <c r="D19" s="16">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0</v>
-      </c>
-      <c r="G19" s="16">
+      <c r="B20" s="16">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16">
         <v>1700</v>
       </c>
-      <c r="H19" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="H20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="16">
-        <v>0</v>
-      </c>
-      <c r="C20" s="16">
-        <v>0</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
-        <v>0</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0</v>
-      </c>
-      <c r="G20" s="16">
+      <c r="B21" s="16">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
+      <c r="G21" s="16">
         <v>2100</v>
       </c>
-      <c r="H20" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="H21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="16">
-        <v>0</v>
-      </c>
-      <c r="C21" s="16">
-        <v>0</v>
-      </c>
-      <c r="D21" s="16">
-        <v>0</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0</v>
-      </c>
-      <c r="F21" s="16">
-        <v>0</v>
-      </c>
-      <c r="G21" s="16">
-        <v>0</v>
-      </c>
-      <c r="H21" s="16">
+      <c r="B22" s="16">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="16">
-        <v>0</v>
-      </c>
-      <c r="C22" s="16">
-        <v>0</v>
-      </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
-        <v>0</v>
-      </c>
-      <c r="F22" s="16">
-        <v>0</v>
-      </c>
-      <c r="G22" s="16">
-        <v>0</v>
-      </c>
-      <c r="H22" s="16">
+      <c r="B23" s="16">
+        <v>0</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="16">
-        <v>0</v>
-      </c>
-      <c r="C23" s="16">
-        <v>0</v>
-      </c>
-      <c r="D23" s="16">
-        <v>0</v>
-      </c>
-      <c r="E23" s="16">
-        <v>0</v>
-      </c>
-      <c r="F23" s="16">
-        <v>0</v>
-      </c>
-      <c r="G23" s="16">
-        <v>0</v>
-      </c>
-      <c r="H23" s="16">
+      <c r="B24" s="16">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+      <c r="H24" s="16">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="16">
-        <v>0</v>
-      </c>
-      <c r="C24" s="16">
-        <v>0</v>
-      </c>
-      <c r="D24" s="16">
-        <v>0</v>
-      </c>
-      <c r="E24" s="16">
-        <v>0</v>
-      </c>
-      <c r="F24" s="16">
-        <v>0</v>
-      </c>
-      <c r="G24" s="16">
-        <v>0</v>
-      </c>
-      <c r="H24" s="16">
+      <c r="B25" s="16">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0</v>
+      </c>
+      <c r="H25" s="16">
         <v>1300</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="16">
-        <v>0</v>
-      </c>
-      <c r="C25" s="16">
-        <v>0</v>
-      </c>
-      <c r="D25" s="16">
-        <v>0</v>
-      </c>
-      <c r="E25" s="16">
-        <v>0</v>
-      </c>
-      <c r="F25" s="16">
-        <v>0</v>
-      </c>
-      <c r="G25" s="16">
-        <v>0</v>
-      </c>
-      <c r="H25" s="16">
+      <c r="B26" s="16">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0</v>
+      </c>
+      <c r="H26" s="16">
         <v>1700</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="16">
-        <v>0</v>
-      </c>
-      <c r="C26" s="16">
-        <v>0</v>
-      </c>
-      <c r="D26" s="16">
-        <v>0</v>
-      </c>
-      <c r="E26" s="16">
-        <v>0</v>
-      </c>
-      <c r="F26" s="16">
-        <v>0</v>
-      </c>
-      <c r="G26" s="16">
-        <v>0</v>
-      </c>
-      <c r="H26" s="16">
+      <c r="B27" s="16">
+        <v>0</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
         <v>2100</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="16">
-        <v>0</v>
-      </c>
-      <c r="C27" s="16">
-        <v>0</v>
-      </c>
-      <c r="D27" s="16">
-        <v>0</v>
-      </c>
-      <c r="E27" s="16">
+      <c r="B28" s="16">
+        <v>0</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16">
         <v>100</v>
       </c>
-      <c r="F27" s="16">
-        <v>0</v>
-      </c>
-      <c r="G27" s="16">
-        <v>0</v>
-      </c>
-      <c r="H27" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="F28" s="16">
+        <v>0</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="16">
-        <v>0</v>
-      </c>
-      <c r="C28" s="16">
-        <v>0</v>
-      </c>
-      <c r="D28" s="16">
-        <v>0</v>
-      </c>
-      <c r="E28" s="16">
+      <c r="B29" s="16">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
         <v>500</v>
       </c>
-      <c r="F28" s="16">
-        <v>0</v>
-      </c>
-      <c r="G28" s="16">
-        <v>0</v>
-      </c>
-      <c r="H28" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="16">
-        <v>0</v>
-      </c>
-      <c r="C29" s="16">
-        <v>0</v>
-      </c>
-      <c r="D29" s="16">
-        <v>0</v>
-      </c>
-      <c r="E29" s="16">
+      <c r="B30" s="16">
+        <v>0</v>
+      </c>
+      <c r="C30" s="16">
+        <v>0</v>
+      </c>
+      <c r="D30" s="16">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
         <v>900</v>
       </c>
-      <c r="F29" s="16">
-        <v>0</v>
-      </c>
-      <c r="G29" s="16">
-        <v>0</v>
-      </c>
-      <c r="H29" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="16">
-        <v>0</v>
-      </c>
-      <c r="C30" s="16">
-        <v>0</v>
-      </c>
-      <c r="D30" s="16">
-        <v>0</v>
-      </c>
-      <c r="E30" s="16">
+      <c r="B31" s="16">
+        <v>0</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0</v>
+      </c>
+      <c r="D31" s="16">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
         <v>1300</v>
       </c>
-      <c r="F30" s="16">
-        <v>0</v>
-      </c>
-      <c r="G30" s="16">
-        <v>0</v>
-      </c>
-      <c r="H30" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="16">
-        <v>0</v>
-      </c>
-      <c r="C31" s="16">
-        <v>0</v>
-      </c>
-      <c r="D31" s="16">
-        <v>0</v>
-      </c>
-      <c r="E31" s="16">
+      <c r="B32" s="16">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16">
+        <v>0</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
         <v>1700</v>
       </c>
-      <c r="F31" s="16">
-        <v>0</v>
-      </c>
-      <c r="G31" s="16">
-        <v>0</v>
-      </c>
-      <c r="H31" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="F32" s="16">
+        <v>0</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0</v>
+      </c>
+      <c r="H32" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="16">
-        <v>0</v>
-      </c>
-      <c r="C32" s="16">
-        <v>0</v>
-      </c>
-      <c r="D32" s="16">
-        <v>0</v>
-      </c>
-      <c r="E32" s="16">
+      <c r="B33" s="16">
+        <v>0</v>
+      </c>
+      <c r="C33" s="16">
+        <v>0</v>
+      </c>
+      <c r="D33" s="16">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
         <v>2100</v>
       </c>
-      <c r="F32" s="16">
-        <v>0</v>
-      </c>
-      <c r="G32" s="16">
-        <v>0</v>
-      </c>
-      <c r="H32" s="16">
+      <c r="F33" s="16">
+        <v>0</v>
+      </c>
+      <c r="G33" s="16">
+        <v>0</v>
+      </c>
+      <c r="H33" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
